--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed4/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.3318</v>
+        <v>-12.4409</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.3771</v>
+        <v>-11.5951</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.80160000000001</v>
+        <v>12.88630000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.3141</v>
+        <v>-12.63740000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.18959999999999</v>
+        <v>11.99549999999999</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.899899999999991</v>
+        <v>-7.15339999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -584,13 +584,13 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.414400000000004</v>
+        <v>8.469100000000006</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.692500000000003</v>
+        <v>-8.754100000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8838</v>
+        <v>11.49009999999999</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.53670000000001</v>
+        <v>-13.4717</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.2754</v>
+        <v>13.3879</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.43880000000001</v>
+        <v>-14.31590000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.487000000000004</v>
+        <v>5.036600000000004</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.214300000000007</v>
+        <v>9.142800000000008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.989900000000002</v>
+        <v>4.841700000000004</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.317799999999997</v>
+        <v>5.599899999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.51110000000002</v>
+        <v>-13.0609</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.697899999999999</v>
+        <v>-8.181400000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>12.72399999999999</v>
+        <v>13.0726</v>
       </c>
     </row>
     <row r="22">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.462</v>
+        <v>13.4309</v>
       </c>
     </row>
   </sheetData>
